--- a/tz.xlsx
+++ b/tz.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Papka Dima\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\PycharmProjects\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="11970"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <t>Записи будут сохранены в файлы с их названиями и сжаты в запароленый архив паролем входа в аккаунт. Названим архива является хэш логина</t>
   </si>
   <si>
-    <t>БД с аккаунтам будет расположена в архиве с паролем, заданным автором программы</t>
+    <t>В БД будут храниться логины и хэши паролей, чтобы нельзя было открыть и узнать пароли от всех аккаунтов</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A2:AF21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
